--- a/Result/checksun/金融業.xlsx
+++ b/Result/checksun/金融業.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>5560</v>
+        <v>4682</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-5330</v>
+        <v>3251</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-5204</v>
+        <v>17033</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>-1529</v>
+        <v>8085</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-8506</v>
+        <v>16249</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>4214</v>
+        <v>15053</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>651</v>
+        <v>-5683</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>17087</v>
+        <v>11578</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>18023</v>
+        <v>1891</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>8963</v>
+        <v>-8390</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>7668</v>
+        <v>-4181</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>-7184</v>
+        <v>1711</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>24529</v>
+        <v>56743</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>46131</v>
+        <v>61713</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>21600</v>
+        <v>28897</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>13462</v>
+        <v>22570</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>-17532</v>
+        <v>30422</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>17567</v>
+        <v>26959</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>18752</v>
+        <v>1196</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>33114</v>
+        <v>44036</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-10270</v>
+        <v>-6710</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-9644</v>
+        <v>-31571</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>14840</v>
+        <v>-34221</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>19662</v>
+        <v>-39269</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-125</v>
+        <v>992</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>-2127</v>
+        <v>-31</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>107</v>
+        <v>3585</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>-3177</v>
+        <v>2476</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>1932</v>
+        <v>3675</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>-69</v>
+        <v>2367</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>4294</v>
+        <v>3764</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>164</v>
+        <v>-3065</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>3547</v>
+        <v>-7797</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>1359</v>
+        <v>-2716</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>1579</v>
+        <v>4038</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>-1111</v>
+        <v>7800</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>188</v>
+        <v>-735</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>140</v>
+        <v>-1097</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>142</v>
+        <v>3881</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>85</v>
+        <v>3769</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>-245</v>
+        <v>3777</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-131</v>
+        <v>3778</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-1008</v>
+        <v>3741</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-992</v>
+        <v>3836</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>3870</v>
+        <v>3685</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -8874,7 +8874,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>4692</v>
+        <v>3286</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>5014</v>
+        <v>3420</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>39</v>
+        <v>-1592</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>1959</v>
+        <v>14054</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>-3515</v>
+        <v>17440</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-16290</v>
+        <v>19220</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>2763</v>
+        <v>29202</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-12427</v>
+        <v>32902</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>2391</v>
+        <v>27290</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>9332</v>
+        <v>5643</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>33382</v>
+        <v>22413</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>33119</v>
+        <v>2545</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>17107</v>
+        <v>-37744</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>11947</v>
+        <v>-38790</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>-8220</v>
+        <v>-28382</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>19027</v>
+        <v>9421</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>-136</v>
+        <v>8983</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>-18011</v>
+        <v>-10635</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-9641</v>
+        <v>-10681</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>-9059</v>
+        <v>4084</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>-8180</v>
+        <v>7315</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>35</v>
+        <v>-1507</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>18178</v>
+        <v>3040</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>15556</v>
+        <v>13047</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-1075</v>
+        <v>-12286</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13455,7 +13455,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>-5035</v>
+        <v>-5415</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-61</v>
+        <v>16511</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -13774,27 +13774,27 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="U74" t="n">
@@ -13817,7 +13817,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>-423</v>
+        <v>0</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -13955,27 +13955,27 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
           <t>-0.58</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>-0.75</t>
         </is>
       </c>
       <c r="U75" t="n">
@@ -13998,7 +13998,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14136,27 +14136,27 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="U76" t="n">
@@ -14179,7 +14179,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>-131</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14282,11 +14282,11 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>100</v>
+        <v>-2.14</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N77" t="n">
@@ -14313,27 +14313,27 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="U77" t="n">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="X77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
@@ -14356,7 +14356,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14494,27 +14494,27 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="U78" t="n">
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="X78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
@@ -14537,7 +14537,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14675,27 +14675,27 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>-0.74</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>-0.87</t>
         </is>
       </c>
       <c r="U79" t="n">
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="X79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
@@ -14718,7 +14718,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>-136</v>
+        <v>0</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -14856,27 +14856,27 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>-1.02</t>
+          <t>-0.94</t>
         </is>
       </c>
       <c r="U80" t="n">
@@ -15037,27 +15037,27 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="U81" t="n">
@@ -15183,11 +15183,11 @@
         <v>1.03</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>100</v>
+        <v>2.14</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -15214,27 +15214,27 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-0.97</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="U82" t="n">
@@ -15360,11 +15360,11 @@
         <v>1.13</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>100</v>
+        <v>2.14</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -15391,27 +15391,27 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>-1.07</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="U83" t="n">
@@ -15434,7 +15434,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>-16</v>
+        <v>-1669</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15537,11 +15537,11 @@
         <v>1.09</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>100</v>
+        <v>2.14</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -15568,27 +15568,27 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>-1.06</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="U84" t="n">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>-202</v>
+        <v>-1015</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -15714,11 +15714,11 @@
         <v>1.13</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>100</v>
+        <v>2.14</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -15745,27 +15745,27 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>-1.11</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>-1.04</t>
         </is>
       </c>
       <c r="U85" t="n">
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>-230</v>
+        <v>-1802</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         </is>
       </c>
       <c r="AB86" t="n">
-        <v>11666</v>
+        <v>19667</v>
       </c>
       <c r="AC86" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         </is>
       </c>
       <c r="AB87" t="n">
-        <v>7131</v>
+        <v>13438</v>
       </c>
       <c r="AC87" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         </is>
       </c>
       <c r="AB88" t="n">
-        <v>-7587</v>
+        <v>12735</v>
       </c>
       <c r="AC88" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         </is>
       </c>
       <c r="AB89" t="n">
-        <v>1702</v>
+        <v>12975</v>
       </c>
       <c r="AC89" t="inlineStr">
         <is>
@@ -16693,7 +16693,7 @@
         </is>
       </c>
       <c r="AB90" t="n">
-        <v>-9340</v>
+        <v>11155</v>
       </c>
       <c r="AC90" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="AB91" t="n">
-        <v>4338</v>
+        <v>15067</v>
       </c>
       <c r="AC91" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="AB92" t="n">
-        <v>6299</v>
+        <v>5448</v>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>15647</v>
+        <v>15254</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>15984</v>
+        <v>4028</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>4974</v>
+        <v>-7114</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17743,7 +17743,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>4848</v>
+        <v>-4704</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         </is>
       </c>
       <c r="AB97" t="n">
-        <v>-5255</v>
+        <v>1644</v>
       </c>
       <c r="AC97" t="inlineStr">
         <is>

--- a/Result/checksun/金融業.xlsx
+++ b/Result/checksun/金融業.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS97"/>
+  <dimension ref="A1:AU97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,85 +576,95 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
+          <t>Volume_Price_Change_sum_12</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Volume_Price_Change_break</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>營業毛利率</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營業利益率</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
@@ -763,79 +773,85 @@
       <c r="AB2" t="n">
         <v>116.9658069693874</v>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AC2" t="n">
+        <v>98.86354231970449</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP2" t="n">
+      <c r="AR2" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -944,79 +960,85 @@
       <c r="AB3" t="n">
         <v>109.7497152615896</v>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC3" t="n">
+        <v>118.4103036057251</v>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AM3" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -1125,79 +1147,85 @@
       <c r="AB4" t="n">
         <v>104.1105182006122</v>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AC4" t="n">
+        <v>141.184276744969</v>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AM4" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -1306,79 +1334,85 @@
       <c r="AB5" t="n">
         <v>103.1212878119741</v>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AC5" t="n">
+        <v>15.32970971675589</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AM5" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP5" t="n">
+      <c r="AR5" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AT5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -1487,79 +1521,85 @@
       <c r="AB6" t="n">
         <v>111.6064514264296</v>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AC6" t="n">
+        <v>184.0706386146362</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AM6" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP6" t="n">
+      <c r="AR6" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS6" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -1668,79 +1708,85 @@
       <c r="AB7" t="n">
         <v>113.7848847606746</v>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AC7" t="n">
+        <v>-104.6900186264192</v>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
+      <c r="AH7" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG7" t="n">
+      <c r="AI7" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AJ7" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AK7" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK7" t="n">
+      <c r="AM7" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP7" t="n">
+      <c r="AR7" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AT7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS7" t="inlineStr">
+      <c r="AU7" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -1849,79 +1895,85 @@
       <c r="AB8" t="n">
         <v>93.70165420097985</v>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AC8" t="n">
+        <v>-197.6233791837393</v>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AG8" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AH8" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG8" t="n">
+      <c r="AI8" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AJ8" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AK8" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK8" t="n">
+      <c r="AM8" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AT8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AU8" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2030,79 +2082,85 @@
       <c r="AB9" t="n">
         <v>48.61069841094653</v>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AC9" t="n">
+        <v>-229.3752384194946</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG9" t="n">
+      <c r="AI9" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AJ9" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AK9" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK9" t="n">
+      <c r="AM9" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP9" t="n">
+      <c r="AR9" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS9" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2211,79 +2269,85 @@
       <c r="AB10" t="n">
         <v>36.0416425818802</v>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AC10" t="n">
+        <v>-258.9806942611746</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG10" t="n">
+      <c r="AI10" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AJ10" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK10" t="n">
+      <c r="AM10" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP10" t="n">
+      <c r="AR10" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AT10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS10" t="inlineStr">
+      <c r="AU10" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2392,79 +2456,85 @@
       <c r="AB11" t="n">
         <v>91.31264972609216</v>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AC11" t="n">
+        <v>-215.522620622523</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG11" t="n">
+      <c r="AI11" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AJ11" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AK11" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK11" t="n">
+      <c r="AM11" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP11" t="n">
+      <c r="AR11" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AT11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AU11" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2573,79 +2643,85 @@
       <c r="AB12" t="n">
         <v>-62.50599971202764</v>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AC12" t="n">
+        <v>-271.1715324291987</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG12" t="n">
+      <c r="AI12" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AJ12" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AK12" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK12" t="n">
+      <c r="AM12" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="AR12" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS12" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2754,79 +2830,85 @@
       <c r="AB13" t="n">
         <v>44.45222154178574</v>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AC13" t="n">
+        <v>-303.7581274632828</v>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>福邦證</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
         <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="AG13" t="n">
+      <c r="AI13" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AJ13" t="n">
         <v>17.57</v>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AK13" t="inlineStr">
         <is>
           <t>88.22%</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>18.73%</t>
         </is>
       </c>
-      <c r="AK13" t="n">
+      <c r="AM13" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>4873</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
         <is>
           <t>出售證券損益-自營41.37%、承銷業務20.81%、股務代理14.40%、出售證券淨損益-承銷12.88%、經紀手續費11.76%、利息收入10.76%、顧問5.29%、其他營業收入4.65%、股利收入3.06%、經理費0.60%、預期信用減損損失及迴轉利益0.13%、期貨佣金0.04% (2024年)</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>福邦證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP13" t="n">
+      <c r="AR13" t="n">
         <v>13.46</v>
       </c>
-      <c r="AQ13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AT13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS13" t="inlineStr">
+      <c r="AU13" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -2943,79 +3025,85 @@
       <c r="AB14" t="n">
         <v>261.4172909353932</v>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AC14" t="n">
+        <v>228.2980508020163</v>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AG14" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AH14" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI14" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ14" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AK14" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK14" t="n">
+      <c r="AM14" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP14" t="n">
+      <c r="AR14" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AT14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS14" t="inlineStr">
+      <c r="AU14" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -3132,79 +3220,85 @@
       <c r="AB15" t="n">
         <v>276.7038127673704</v>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AC15" t="n">
+        <v>178.5329101314377</v>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AK15" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AT15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS15" t="inlineStr">
+      <c r="AU15" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -3321,79 +3415,85 @@
       <c r="AB16" t="n">
         <v>215.1115989434321</v>
       </c>
-      <c r="AC16" t="inlineStr">
+      <c r="AC16" t="n">
+        <v>-90.26627277117406</v>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
+      <c r="AH16" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG16" t="n">
+      <c r="AI16" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AJ16" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AK16" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK16" t="n">
+      <c r="AM16" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AO16" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP16" t="n">
+      <c r="AR16" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AT16" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS16" t="inlineStr">
+      <c r="AU16" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -3510,79 +3610,85 @@
       <c r="AB17" t="n">
         <v>215.7799805357299</v>
       </c>
-      <c r="AC17" t="inlineStr">
+      <c r="AC17" t="n">
+        <v>-140.2462120700591</v>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AF17" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE17" t="inlineStr">
+      <c r="AG17" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
+      <c r="AH17" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG17" t="n">
+      <c r="AI17" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AJ17" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AK17" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
+      <c r="AL17" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK17" t="n">
+      <c r="AM17" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AN17" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AO17" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP17" t="n">
+      <c r="AR17" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AT17" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS17" t="inlineStr">
+      <c r="AU17" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -3699,79 +3805,85 @@
       <c r="AB18" t="n">
         <v>211.8372016431486</v>
       </c>
-      <c r="AC18" t="inlineStr">
+      <c r="AC18" t="n">
+        <v>174.9142647127443</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AF18" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE18" t="inlineStr">
+      <c r="AG18" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
+      <c r="AH18" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG18" t="n">
+      <c r="AI18" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AJ18" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AK18" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
+      <c r="AL18" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AN18" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AO18" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP18" t="n">
+      <c r="AR18" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AT18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS18" t="inlineStr">
+      <c r="AU18" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -3888,79 +4000,85 @@
       <c r="AB19" t="n">
         <v>191.2694434560837</v>
       </c>
-      <c r="AC19" t="inlineStr">
+      <c r="AC19" t="n">
+        <v>-154.4182631685773</v>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AF19" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE19" t="inlineStr">
+      <c r="AG19" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
+      <c r="AH19" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG19" t="n">
+      <c r="AI19" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AJ19" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AK19" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
+      <c r="AL19" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK19" t="n">
+      <c r="AM19" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AN19" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AO19" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP19" t="n">
+      <c r="AR19" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AT19" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS19" t="inlineStr">
+      <c r="AU19" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -4077,79 +4195,85 @@
       <c r="AB20" t="n">
         <v>141.7462521550394</v>
       </c>
-      <c r="AC20" t="inlineStr">
+      <c r="AC20" t="n">
+        <v>139.344895851983</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AF20" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE20" t="inlineStr">
+      <c r="AG20" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
+      <c r="AH20" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG20" t="n">
+      <c r="AI20" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AJ20" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AK20" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
+      <c r="AL20" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK20" t="n">
+      <c r="AM20" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AN20" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AO20" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="AR20" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AT20" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS20" t="inlineStr">
+      <c r="AU20" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -4266,79 +4390,85 @@
       <c r="AB21" t="n">
         <v>123.9475695606816</v>
       </c>
-      <c r="AC21" t="inlineStr">
+      <c r="AC21" t="n">
+        <v>-247.9838704432206</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AF21" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE21" t="inlineStr">
+      <c r="AG21" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
+      <c r="AH21" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG21" t="n">
+      <c r="AI21" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AJ21" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AK21" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
+      <c r="AL21" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK21" t="n">
+      <c r="AM21" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AN21" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AO21" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP21" t="n">
+      <c r="AR21" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AT21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS21" t="inlineStr">
+      <c r="AU21" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -4455,79 +4585,85 @@
       <c r="AB22" t="n">
         <v>138.57849761056</v>
       </c>
-      <c r="AC22" t="inlineStr">
+      <c r="AC22" t="n">
+        <v>-261.275716437636</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AF22" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE22" t="inlineStr">
+      <c r="AG22" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
+      <c r="AH22" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG22" t="n">
+      <c r="AI22" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AJ22" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AK22" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
+      <c r="AL22" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AN22" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AO22" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP22" t="n">
+      <c r="AR22" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS22" t="inlineStr">
+      <c r="AU22" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -4644,79 +4780,85 @@
       <c r="AB23" t="n">
         <v>146.7037831823024</v>
       </c>
-      <c r="AC23" t="inlineStr">
+      <c r="AC23" t="n">
+        <v>-182.7402528180368</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AF23" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE23" t="inlineStr">
+      <c r="AG23" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
+      <c r="AH23" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG23" t="n">
+      <c r="AI23" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AJ23" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AK23" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
+      <c r="AL23" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK23" t="n">
+      <c r="AM23" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AN23" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AO23" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP23" t="n">
+      <c r="AR23" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS23" t="inlineStr">
+      <c r="AU23" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -4833,79 +4975,85 @@
       <c r="AB24" t="n">
         <v>-127.3538377906218</v>
       </c>
-      <c r="AC24" t="inlineStr">
+      <c r="AC24" t="n">
+        <v>-300.341472327749</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AF24" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
+      <c r="AG24" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
+      <c r="AH24" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG24" t="n">
+      <c r="AI24" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AJ24" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AK24" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
+      <c r="AL24" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK24" t="n">
+      <c r="AM24" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AN24" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AO24" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP24" t="n">
+      <c r="AR24" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS24" t="inlineStr">
+      <c r="AU24" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -5022,79 +5170,85 @@
       <c r="AB25" t="n">
         <v>-211.4024597775532</v>
       </c>
-      <c r="AC25" t="inlineStr">
+      <c r="AC25" t="n">
+        <v>-360.3817420458478</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>元大期貨</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AF25" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE25" t="inlineStr">
+      <c r="AG25" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
+      <c r="AH25" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="AG25" t="n">
+      <c r="AI25" t="n">
         <v>2.79</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AJ25" t="n">
         <v>12.03</v>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AK25" t="inlineStr">
         <is>
           <t>31.66%</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
+      <c r="AL25" t="inlineStr">
         <is>
           <t>-31.30%</t>
         </is>
       </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AN25" t="inlineStr">
         <is>
           <t>27134</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AO25" t="inlineStr">
         <is>
           <t>經紀手續費92.56%、營業證券出售損益5.66%、受託結算交割服務費0.97%、營業證券透過損益按公允價值0.66%、股利收入0.65%、證券佣金0.56%、顧問0.19% (2024年)</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>元大期貨-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>金融業右上</t>
         </is>
       </c>
-      <c r="AP25" t="n">
+      <c r="AR25" t="n">
         <v>58.63</v>
       </c>
-      <c r="AQ25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS25" t="inlineStr">
+      <c r="AU25" t="inlineStr">
         <is>
           <t>** 金融 - 期貨業</t>
         </is>
@@ -5203,69 +5357,75 @@
       <c r="AB26" t="n">
         <v>43.74928570845471</v>
       </c>
-      <c r="AC26" t="inlineStr">
+      <c r="AC26" t="n">
+        <v>22.44994432064365</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AF26" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE26" t="inlineStr">
+      <c r="AG26" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
+      <c r="AH26" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG26" t="n">
+      <c r="AI26" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="n">
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AN26" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AO26" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP26" t="n">
+      <c r="AR26" t="n">
         <v>23</v>
       </c>
-      <c r="AQ26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS26" t="inlineStr">
+      <c r="AU26" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -5374,69 +5534,75 @@
       <c r="AB27" t="n">
         <v>20.95232683975696</v>
       </c>
-      <c r="AC27" t="inlineStr">
+      <c r="AC27" t="n">
+        <v>69.79971346646059</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AF27" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE27" t="inlineStr">
+      <c r="AG27" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AH27" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG27" t="n">
+      <c r="AI27" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="n">
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AN27" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AO27" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP27" t="n">
+      <c r="AR27" t="n">
         <v>23</v>
       </c>
-      <c r="AQ27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS27" t="inlineStr">
+      <c r="AU27" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -5545,69 +5711,75 @@
       <c r="AB28" t="n">
         <v>37.24244889907214</v>
       </c>
-      <c r="AC28" t="inlineStr">
+      <c r="AC28" t="n">
+        <v>105.0380883299006</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AF28" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AG28" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
+      <c r="AH28" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="n">
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AN28" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AO28" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP28" t="n">
+      <c r="AR28" t="n">
         <v>23</v>
       </c>
-      <c r="AQ28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS28" t="inlineStr">
+      <c r="AU28" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -5716,69 +5888,75 @@
       <c r="AB29" t="n">
         <v>42.60281680828159</v>
       </c>
-      <c r="AC29" t="inlineStr">
+      <c r="AC29" t="n">
+        <v>76.96102909914862</v>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AF29" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE29" t="inlineStr">
+      <c r="AG29" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
+      <c r="AH29" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="n">
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AN29" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AO29" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP29" t="n">
+      <c r="AR29" t="n">
         <v>23</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS29" t="inlineStr">
+      <c r="AU29" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -5887,69 +6065,75 @@
       <c r="AB30" t="n">
         <v>51.99038372622383</v>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC30" t="n">
+        <v>114.4071676076285</v>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AF30" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE30" t="inlineStr">
+      <c r="AG30" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
+      <c r="AH30" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG30" t="n">
+      <c r="AI30" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="n">
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AN30" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM30" t="inlineStr">
+      <c r="AO30" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AQ30" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP30" t="n">
+      <c r="AR30" t="n">
         <v>23</v>
       </c>
-      <c r="AQ30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS30" t="inlineStr">
+      <c r="AU30" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6058,69 +6242,75 @@
       <c r="AB31" t="n">
         <v>55.59676249567055</v>
       </c>
-      <c r="AC31" t="inlineStr">
+      <c r="AC31" t="n">
+        <v>87.42425292789181</v>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AF31" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE31" t="inlineStr">
+      <c r="AG31" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
+      <c r="AH31" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG31" t="n">
+      <c r="AI31" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="n">
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AN31" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AO31" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP31" t="n">
+      <c r="AR31" t="n">
         <v>23</v>
       </c>
-      <c r="AQ31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
+      <c r="AU31" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6229,69 +6419,75 @@
       <c r="AB32" t="n">
         <v>53.20714237769212</v>
       </c>
-      <c r="AC32" t="inlineStr">
+      <c r="AC32" t="n">
+        <v>-20.42057785666214</v>
+      </c>
+      <c r="AD32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AF32" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE32" t="inlineStr">
+      <c r="AG32" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF32" t="inlineStr">
+      <c r="AH32" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG32" t="n">
+      <c r="AI32" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="n">
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AN32" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AO32" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP32" t="n">
+      <c r="AR32" t="n">
         <v>23</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS32" t="inlineStr">
+      <c r="AU32" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6400,69 +6596,75 @@
       <c r="AB33" t="n">
         <v>26.58947160061666</v>
       </c>
-      <c r="AC33" t="inlineStr">
+      <c r="AC33" t="n">
+        <v>-72.6636084983398</v>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE33" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF33" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG33" t="n">
+      <c r="AI33" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="n">
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM33" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP33" t="n">
+      <c r="AR33" t="n">
         <v>23</v>
       </c>
-      <c r="AQ33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS33" t="inlineStr">
+      <c r="AU33" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6571,69 +6773,75 @@
       <c r="AB34" t="n">
         <v>38.2099463490856</v>
       </c>
-      <c r="AC34" t="inlineStr">
+      <c r="AC34" t="n">
+        <v>4.47213595499958</v>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF34" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG34" t="n">
+      <c r="AI34" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="n">
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>23</v>
       </c>
-      <c r="AQ34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS34" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6742,69 +6950,75 @@
       <c r="AB35" t="n">
         <v>-96.6126285741155</v>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC35" t="n">
+        <v>-37.5099986670221</v>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="n">
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP35" t="n">
+      <c r="AR35" t="n">
         <v>23</v>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -6913,69 +7127,75 @@
       <c r="AB36" t="n">
         <v>-37.54996671103717</v>
       </c>
-      <c r="AC36" t="inlineStr">
+      <c r="AC36" t="n">
+        <v>-73.42342950312251</v>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG36" t="n">
+      <c r="AI36" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="n">
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP36" t="n">
+      <c r="AR36" t="n">
         <v>23</v>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS36" t="inlineStr">
+      <c r="AU36" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7084,69 +7304,75 @@
       <c r="AB37" t="n">
         <v>66.58077800686922</v>
       </c>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="n">
+        <v>-96.317184344228</v>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>美好證</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>11.56</t>
         </is>
       </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="n">
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>6502</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>經紀手續費45.73%、營業證券透過損益按公允價值23.12%、股利收入15.06%、利息收入12.60%、其他2.57%、經理費2.34%、證券出售損益1.10%、承銷業務0.41% (2024年)</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>美好證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP37" t="n">
+      <c r="AR37" t="n">
         <v>23</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AU37" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7263,71 +7489,77 @@
       <c r="AB38" t="n">
         <v>17.26267650163207</v>
       </c>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="n">
+        <v>51.84592558726288</v>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG38" t="n">
+      <c r="AI38" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AJ38" t="n">
         <v>76</v>
       </c>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="n">
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP38" t="n">
+      <c r="AR38" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS38" t="inlineStr">
+      <c r="AU38" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7444,71 +7676,77 @@
       <c r="AB39" t="n">
         <v>-23.25940669922602</v>
       </c>
-      <c r="AC39" t="inlineStr">
+      <c r="AC39" t="n">
+        <v>52.02883815731425</v>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG39" t="n">
+      <c r="AI39" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AJ39" t="n">
         <v>76</v>
       </c>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="n">
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP39" t="n">
+      <c r="AR39" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS39" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7625,71 +7863,77 @@
       <c r="AB40" t="n">
         <v>-30.11644069275119</v>
       </c>
-      <c r="AC40" t="inlineStr">
+      <c r="AC40" t="n">
+        <v>49.38623289946298</v>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AF40" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AG40" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AH40" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AJ40" t="n">
         <v>76</v>
       </c>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="n">
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AN40" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AO40" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP40" t="n">
+      <c r="AR40" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS40" t="inlineStr">
+      <c r="AU40" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7806,71 +8050,77 @@
       <c r="AB41" t="n">
         <v>61.97580172938467</v>
       </c>
-      <c r="AC41" t="inlineStr">
+      <c r="AC41" t="n">
+        <v>45.83666654546336</v>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AF41" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AG41" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AH41" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG41" t="n">
+      <c r="AI41" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AJ41" t="n">
         <v>76</v>
       </c>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="n">
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AN41" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AO41" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP41" t="n">
+      <c r="AR41" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS41" t="inlineStr">
+      <c r="AU41" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -7987,71 +8237,77 @@
       <c r="AB42" t="n">
         <v>61.7008914036094</v>
       </c>
-      <c r="AC42" t="inlineStr">
+      <c r="AC42" t="n">
+        <v>54.99090833947008</v>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AF42" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE42" t="inlineStr">
+      <c r="AG42" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF42" t="inlineStr">
+      <c r="AH42" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG42" t="n">
+      <c r="AI42" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AJ42" t="n">
         <v>76</v>
       </c>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="n">
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AN42" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AO42" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP42" t="n">
+      <c r="AR42" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS42" t="inlineStr">
+      <c r="AU42" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -8168,71 +8424,77 @@
       <c r="AB43" t="n">
         <v>62.60191690355816</v>
       </c>
-      <c r="AC43" t="inlineStr">
+      <c r="AC43" t="n">
+        <v>51.51698748956503</v>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AF43" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE43" t="inlineStr">
+      <c r="AG43" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF43" t="inlineStr">
+      <c r="AH43" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG43" t="n">
+      <c r="AI43" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AJ43" t="n">
         <v>76</v>
       </c>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="n">
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AN43" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AO43" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP43" t="n">
+      <c r="AR43" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS43" t="inlineStr">
+      <c r="AU43" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -8349,71 +8611,77 @@
       <c r="AB44" t="n">
         <v>61.15553940568262</v>
       </c>
-      <c r="AC44" t="inlineStr">
+      <c r="AC44" t="n">
+        <v>49.22397789695587</v>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AF44" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE44" t="inlineStr">
+      <c r="AG44" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF44" t="inlineStr">
+      <c r="AH44" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG44" t="n">
+      <c r="AI44" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AJ44" t="n">
         <v>76</v>
       </c>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="n">
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AN44" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AO44" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP44" t="n">
+      <c r="AR44" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS44" t="inlineStr">
+      <c r="AU44" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -8530,71 +8798,77 @@
       <c r="AB45" t="n">
         <v>61.00819617067857</v>
       </c>
-      <c r="AC45" t="inlineStr">
+      <c r="AC45" t="n">
+        <v>30.93541659651604</v>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AF45" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
+      <c r="AG45" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF45" t="inlineStr">
+      <c r="AH45" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG45" t="n">
+      <c r="AI45" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AJ45" t="n">
         <v>76</v>
       </c>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="n">
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AN45" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AO45" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP45" t="n">
+      <c r="AR45" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS45" t="inlineStr">
+      <c r="AU45" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -8711,71 +8985,77 @@
       <c r="AB46" t="n">
         <v>60.398675482166</v>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AC46" t="n">
+        <v>33.48133808556641</v>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AF46" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
+      <c r="AG46" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF46" t="inlineStr">
+      <c r="AH46" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG46" t="n">
+      <c r="AI46" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AJ46" t="n">
         <v>76</v>
       </c>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="n">
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AN46" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AO46" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AP46" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP46" t="n">
+      <c r="AR46" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR46" t="inlineStr">
+      <c r="AT46" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS46" t="inlineStr">
+      <c r="AU46" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -8892,71 +9172,77 @@
       <c r="AB47" t="n">
         <v>61.32699242584786</v>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AC47" t="n">
+        <v>38.22302970723278</v>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AF47" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AG47" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AH47" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG47" t="n">
+      <c r="AI47" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AJ47" t="n">
         <v>76</v>
       </c>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="n">
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AN47" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AO47" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP47" t="n">
+      <c r="AR47" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR47" t="inlineStr">
+      <c r="AT47" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS47" t="inlineStr">
+      <c r="AU47" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9065,71 +9351,77 @@
       <c r="AB48" t="n">
         <v>48.88762624632127</v>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AC48" t="n">
+        <v>32.68026927673638</v>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AF48" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
+      <c r="AG48" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF48" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG48" t="n">
+      <c r="AI48" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AJ48" t="n">
         <v>76</v>
       </c>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="n">
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL48" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AP48" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP48" t="n">
+      <c r="AR48" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS48" t="inlineStr">
+      <c r="AU48" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9238,71 +9530,77 @@
       <c r="AB49" t="n">
         <v>56.99122739510003</v>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AC49" t="n">
+        <v>38.36665218650175</v>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="inlineStr">
         <is>
           <t>大展證</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AF49" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AG49" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AH49" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="AG49" t="n">
+      <c r="AI49" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AJ49" t="n">
         <v>76</v>
       </c>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="n">
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AN49" t="inlineStr">
         <is>
           <t>4795</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>證券出售損益43.16%、經紀手續費21.40%、利息收入13.86%、衍生工具淨損益-櫃檯13.14%、股利收入7.45%、其他3.55%、經理費0.67%、承銷業務0.31%、期貨佣金0.20% (2024年)</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>大展證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP49" t="n">
+      <c r="AR49" t="n">
         <v>18.22</v>
       </c>
-      <c r="AQ49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS49" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9411,79 +9709,85 @@
       <c r="AB50" t="n">
         <v>91.4603739331958</v>
       </c>
-      <c r="AC50" t="inlineStr">
+      <c r="AC50" t="n">
+        <v>-135.8749425022878</v>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AF50" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AG50" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG50" t="n">
+      <c r="AI50" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AJ50" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AL50" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK50" t="n">
+      <c r="AM50" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AN50" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AO50" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP50" t="n">
+      <c r="AR50" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9592,79 +9896,85 @@
       <c r="AB51" t="n">
         <v>161.8208886392607</v>
       </c>
-      <c r="AC51" t="inlineStr">
+      <c r="AC51" t="n">
+        <v>32.09361307176243</v>
+      </c>
+      <c r="AD51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE51" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF51" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG51" t="n">
+      <c r="AI51" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AJ51" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AK51" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ51" t="inlineStr">
+      <c r="AL51" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK51" t="n">
+      <c r="AM51" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AN51" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AO51" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP51" t="n">
+      <c r="AR51" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS51" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9773,79 +10083,85 @@
       <c r="AB52" t="n">
         <v>166.3971153596119</v>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC52" t="n">
+        <v>88.73556220591607</v>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
+      <c r="AG52" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AH52" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG52" t="n">
+      <c r="AI52" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AJ52" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AK52" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AL52" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK52" t="n">
+      <c r="AM52" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AN52" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AO52" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP52" t="n">
+      <c r="AR52" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS52" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -9954,79 +10270,85 @@
       <c r="AB53" t="n">
         <v>161.2699600049557</v>
       </c>
-      <c r="AC53" t="inlineStr">
+      <c r="AC53" t="n">
+        <v>-198.620240660412</v>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE53" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF53" t="inlineStr">
+      <c r="AH53" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG53" t="n">
+      <c r="AI53" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AJ53" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI53" t="inlineStr">
+      <c r="AK53" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ53" t="inlineStr">
+      <c r="AL53" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK53" t="n">
+      <c r="AM53" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AN53" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AO53" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP53" t="n">
+      <c r="AR53" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS53" t="inlineStr">
+      <c r="AU53" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -10135,79 +10457,85 @@
       <c r="AB54" t="n">
         <v>118.8486432400471</v>
       </c>
-      <c r="AC54" t="inlineStr">
+      <c r="AC54" t="n">
+        <v>179.3209413314574</v>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AF54" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AH54" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG54" t="n">
+      <c r="AI54" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AJ54" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI54" t="inlineStr">
+      <c r="AK54" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ54" t="inlineStr">
+      <c r="AL54" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK54" t="n">
+      <c r="AM54" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AN54" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AO54" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP54" t="n">
+      <c r="AR54" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS54" t="inlineStr">
+      <c r="AU54" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -10316,79 +10644,85 @@
       <c r="AB55" t="n">
         <v>194.1030654059848</v>
       </c>
-      <c r="AC55" t="inlineStr">
+      <c r="AC55" t="n">
+        <v>-117.0085466963845</v>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AF55" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE55" t="inlineStr">
+      <c r="AG55" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF55" t="inlineStr">
+      <c r="AH55" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG55" t="n">
+      <c r="AI55" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AJ55" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI55" t="inlineStr">
+      <c r="AK55" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ55" t="inlineStr">
+      <c r="AL55" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK55" t="n">
+      <c r="AM55" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AN55" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AO55" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP55" t="n">
+      <c r="AR55" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS55" t="inlineStr">
+      <c r="AU55" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -10497,79 +10831,85 @@
       <c r="AB56" t="n">
         <v>145.9554726620417</v>
       </c>
-      <c r="AC56" t="inlineStr">
+      <c r="AC56" t="n">
+        <v>-270.9630971184084</v>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AF56" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE56" t="inlineStr">
+      <c r="AG56" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF56" t="inlineStr">
+      <c r="AH56" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG56" t="n">
+      <c r="AI56" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AJ56" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI56" t="inlineStr">
+      <c r="AK56" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ56" t="inlineStr">
+      <c r="AL56" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK56" t="n">
+      <c r="AM56" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AN56" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AO56" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP56" t="n">
+      <c r="AR56" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS56" t="inlineStr">
+      <c r="AU56" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -10678,79 +11018,85 @@
       <c r="AB57" t="n">
         <v>98.07650075323852</v>
       </c>
-      <c r="AC57" t="inlineStr">
+      <c r="AC57" t="n">
+        <v>-276.4452929604698</v>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AF57" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE57" t="inlineStr">
+      <c r="AG57" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF57" t="inlineStr">
+      <c r="AH57" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG57" t="n">
+      <c r="AI57" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AJ57" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI57" t="inlineStr">
+      <c r="AK57" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ57" t="inlineStr">
+      <c r="AL57" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK57" t="n">
+      <c r="AM57" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AN57" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AO57" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP57" t="n">
+      <c r="AR57" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS57" t="inlineStr">
+      <c r="AU57" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -10859,79 +11205,85 @@
       <c r="AB58" t="n">
         <v>109.5308175811721</v>
       </c>
-      <c r="AC58" t="inlineStr">
+      <c r="AC58" t="n">
+        <v>-299.7315465545794</v>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AF58" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE58" t="inlineStr">
+      <c r="AG58" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF58" t="inlineStr">
+      <c r="AH58" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG58" t="n">
+      <c r="AI58" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AJ58" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI58" t="inlineStr">
+      <c r="AK58" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ58" t="inlineStr">
+      <c r="AL58" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK58" t="n">
+      <c r="AM58" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL58" t="inlineStr">
+      <c r="AN58" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM58" t="inlineStr">
+      <c r="AO58" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AP58" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AQ58" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP58" t="n">
+      <c r="AR58" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS58" t="inlineStr">
+      <c r="AU58" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11040,79 +11392,85 @@
       <c r="AB59" t="n">
         <v>106.6583330077871</v>
       </c>
-      <c r="AC59" t="inlineStr">
+      <c r="AC59" t="n">
+        <v>-258.0561954303752</v>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AF59" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE59" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF59" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG59" t="n">
+      <c r="AI59" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AJ59" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI59" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ59" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK59" t="n">
+      <c r="AM59" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP59" t="n">
+      <c r="AR59" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS59" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11221,79 +11579,85 @@
       <c r="AB60" t="n">
         <v>-163.7894990529002</v>
       </c>
-      <c r="AC60" t="inlineStr">
+      <c r="AC60" t="n">
+        <v>-356.4617791573172</v>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AF60" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE60" t="inlineStr">
+      <c r="AG60" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF60" t="inlineStr">
+      <c r="AH60" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG60" t="n">
+      <c r="AI60" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AJ60" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI60" t="inlineStr">
+      <c r="AK60" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ60" t="inlineStr">
+      <c r="AL60" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK60" t="n">
+      <c r="AM60" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AN60" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AO60" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP60" t="n">
+      <c r="AR60" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS60" t="inlineStr">
+      <c r="AU60" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11402,79 +11766,85 @@
       <c r="AB61" t="n">
         <v>-158.6064311432547</v>
       </c>
-      <c r="AC61" t="inlineStr">
+      <c r="AC61" t="n">
+        <v>-401.373890531011</v>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="inlineStr">
         <is>
           <t>康和證</t>
         </is>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AF61" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE61" t="inlineStr">
+      <c r="AG61" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF61" t="inlineStr">
+      <c r="AH61" t="inlineStr">
         <is>
           <t>10.47</t>
         </is>
       </c>
-      <c r="AG61" t="n">
+      <c r="AI61" t="n">
         <v>0.26</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AJ61" t="n">
         <v>131.11</v>
       </c>
-      <c r="AI61" t="inlineStr">
+      <c r="AK61" t="inlineStr">
         <is>
           <t>-9.83%</t>
         </is>
       </c>
-      <c r="AJ61" t="inlineStr">
+      <c r="AL61" t="inlineStr">
         <is>
           <t>-273.88%</t>
         </is>
       </c>
-      <c r="AK61" t="n">
+      <c r="AM61" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AN61" t="inlineStr">
         <is>
           <t>7365</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AO61" t="inlineStr">
         <is>
           <t>經紀手續費46.56%、營業證券出售損益42.58%、利息收入11.23%、股利收入4.71%、其他營業收入3.66%、營業證券透過損益按公允價值3.66%、借券1.08%、股務代理0.78%、借券及附賣回債券融券透過損0.63%、承銷業務0.46%、預期信用減損損失及迴轉利益0.10% (2024年)</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>康和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP61" t="n">
+      <c r="AR61" t="n">
         <v>15.09</v>
       </c>
-      <c r="AQ61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS61" t="inlineStr">
+      <c r="AU61" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11591,79 +11961,85 @@
       <c r="AB62" t="n">
         <v>18.16590212458495</v>
       </c>
-      <c r="AC62" t="inlineStr">
+      <c r="AC62" t="n">
+        <v>32.81767816284388</v>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AF62" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE62" t="inlineStr">
+      <c r="AG62" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF62" t="inlineStr">
+      <c r="AH62" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG62" t="n">
+      <c r="AI62" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AJ62" t="n">
         <v>265</v>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AK62" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ62" t="inlineStr">
+      <c r="AL62" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK62" t="n">
+      <c r="AM62" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AN62" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AO62" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AP62" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP62" t="n">
+      <c r="AR62" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS62" t="inlineStr">
+      <c r="AU62" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11780,79 +12156,85 @@
       <c r="AB63" t="n">
         <v>142.3376267892647</v>
       </c>
-      <c r="AC63" t="inlineStr">
+      <c r="AC63" t="n">
+        <v>158.3729774930054</v>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AF63" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE63" t="inlineStr">
+      <c r="AG63" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF63" t="inlineStr">
+      <c r="AH63" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG63" t="n">
+      <c r="AI63" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AJ63" t="n">
         <v>265</v>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AK63" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ63" t="inlineStr">
+      <c r="AL63" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK63" t="n">
+      <c r="AM63" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AN63" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AO63" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP63" t="n">
+      <c r="AR63" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS63" t="inlineStr">
+      <c r="AU63" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -11969,79 +12351,85 @@
       <c r="AB64" t="n">
         <v>140.2069898400219</v>
       </c>
-      <c r="AC64" t="inlineStr">
+      <c r="AC64" t="n">
+        <v>168.6860990123371</v>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AF64" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE64" t="inlineStr">
+      <c r="AG64" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF64" t="inlineStr">
+      <c r="AH64" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG64" t="n">
+      <c r="AI64" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AJ64" t="n">
         <v>265</v>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AK64" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ64" t="inlineStr">
+      <c r="AL64" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK64" t="n">
+      <c r="AM64" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AN64" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AO64" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP64" t="n">
+      <c r="AR64" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS64" t="inlineStr">
+      <c r="AU64" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -12158,79 +12546,85 @@
       <c r="AB65" t="n">
         <v>35.62302626111375</v>
       </c>
-      <c r="AC65" t="inlineStr">
+      <c r="AC65" t="n">
+        <v>160.521026660061</v>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AF65" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE65" t="inlineStr">
+      <c r="AG65" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF65" t="inlineStr">
+      <c r="AH65" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG65" t="n">
+      <c r="AI65" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AJ65" t="n">
         <v>265</v>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AK65" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ65" t="inlineStr">
+      <c r="AL65" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK65" t="n">
+      <c r="AM65" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AN65" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AO65" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP65" t="n">
+      <c r="AR65" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS65" t="inlineStr">
+      <c r="AU65" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -12347,79 +12741,85 @@
       <c r="AB66" t="n">
         <v>-119.3021374494187</v>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AC66" t="n">
+        <v>158.5591372327688</v>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE66" t="inlineStr">
+      <c r="AG66" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF66" t="inlineStr">
+      <c r="AH66" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG66" t="n">
+      <c r="AI66" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AJ66" t="n">
         <v>265</v>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AK66" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ66" t="inlineStr">
+      <c r="AL66" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK66" t="n">
+      <c r="AM66" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AN66" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AO66" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP66" t="n">
+      <c r="AR66" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS66" t="inlineStr">
+      <c r="AU66" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -12536,79 +12936,85 @@
       <c r="AB67" t="n">
         <v>-66.36264009214823</v>
       </c>
-      <c r="AC67" t="inlineStr">
+      <c r="AC67" t="n">
+        <v>86.39444426582071</v>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AF67" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE67" t="inlineStr">
+      <c r="AG67" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF67" t="inlineStr">
+      <c r="AH67" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG67" t="n">
+      <c r="AI67" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AJ67" t="n">
         <v>265</v>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AK67" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ67" t="inlineStr">
+      <c r="AL67" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK67" t="n">
+      <c r="AM67" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AN67" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AO67" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP67" t="n">
+      <c r="AR67" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS67" t="inlineStr">
+      <c r="AU67" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -12725,79 +13131,85 @@
       <c r="AB68" t="n">
         <v>36.66060555964672</v>
       </c>
-      <c r="AC68" t="inlineStr">
+      <c r="AC68" t="n">
+        <v>-110.8196733436803</v>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AF68" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE68" t="inlineStr">
+      <c r="AG68" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF68" t="inlineStr">
+      <c r="AH68" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG68" t="n">
+      <c r="AI68" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AJ68" t="n">
         <v>265</v>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AK68" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ68" t="inlineStr">
+      <c r="AL68" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK68" t="n">
+      <c r="AM68" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AN68" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AO68" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP68" t="n">
+      <c r="AR68" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS68" t="inlineStr">
+      <c r="AU68" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -12914,79 +13326,85 @@
       <c r="AB69" t="n">
         <v>57.54128952326321</v>
       </c>
-      <c r="AC69" t="inlineStr">
+      <c r="AC69" t="n">
+        <v>-234.484541068276</v>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AF69" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE69" t="inlineStr">
+      <c r="AG69" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AH69" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG69" t="n">
+      <c r="AI69" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AJ69" t="n">
         <v>265</v>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AK69" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ69" t="inlineStr">
+      <c r="AL69" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK69" t="n">
+      <c r="AM69" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AN69" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM69" t="inlineStr">
+      <c r="AO69" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AQ69" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP69" t="n">
+      <c r="AR69" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS69" t="inlineStr">
+      <c r="AU69" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -13103,79 +13521,85 @@
       <c r="AB70" t="n">
         <v>-69.75672010638115</v>
       </c>
-      <c r="AC70" t="inlineStr">
+      <c r="AC70" t="n">
+        <v>-220.5175729958953</v>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AF70" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE70" t="inlineStr">
+      <c r="AG70" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF70" t="inlineStr">
+      <c r="AH70" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG70" t="n">
+      <c r="AI70" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AJ70" t="n">
         <v>265</v>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AK70" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ70" t="inlineStr">
+      <c r="AL70" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK70" t="n">
+      <c r="AM70" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AN70" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AO70" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP70" t="n">
+      <c r="AR70" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS70" t="inlineStr">
+      <c r="AU70" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -13292,79 +13716,85 @@
       <c r="AB71" t="n">
         <v>89.19080670113932</v>
       </c>
-      <c r="AC71" t="inlineStr">
+      <c r="AC71" t="n">
+        <v>-171.0935416665398</v>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AF71" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE71" t="inlineStr">
+      <c r="AG71" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF71" t="inlineStr">
+      <c r="AH71" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG71" t="n">
+      <c r="AI71" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AJ71" t="n">
         <v>265</v>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AK71" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ71" t="inlineStr">
+      <c r="AL71" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK71" t="n">
+      <c r="AM71" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AN71" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AO71" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP71" t="n">
+      <c r="AR71" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS71" t="inlineStr">
+      <c r="AU71" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -13481,79 +13911,85 @@
       <c r="AB72" t="n">
         <v>27.3313007374329</v>
       </c>
-      <c r="AC72" t="inlineStr">
+      <c r="AC72" t="n">
+        <v>-236.5924766344019</v>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AF72" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE72" t="inlineStr">
+      <c r="AG72" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF72" t="inlineStr">
+      <c r="AH72" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG72" t="n">
+      <c r="AI72" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AJ72" t="n">
         <v>265</v>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AK72" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ72" t="inlineStr">
+      <c r="AL72" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK72" t="n">
+      <c r="AM72" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AN72" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AO72" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP72" t="n">
+      <c r="AR72" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AS72" t="inlineStr">
+      <c r="AU72" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -13670,79 +14106,85 @@
       <c r="AB73" t="n">
         <v>69.44062211702888</v>
       </c>
-      <c r="AC73" t="inlineStr">
+      <c r="AC73" t="n">
+        <v>-304.1200420886463</v>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="inlineStr">
         <is>
           <t>宏遠證</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AF73" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE73" t="inlineStr">
+      <c r="AG73" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF73" t="inlineStr">
+      <c r="AH73" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="AG73" t="n">
+      <c r="AI73" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AJ73" t="n">
         <v>265</v>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AK73" t="inlineStr">
         <is>
           <t>83.10%</t>
         </is>
       </c>
-      <c r="AJ73" t="inlineStr">
+      <c r="AL73" t="inlineStr">
         <is>
           <t>-75.32%</t>
         </is>
       </c>
-      <c r="AK73" t="n">
+      <c r="AM73" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AN73" t="inlineStr">
         <is>
           <t>4154</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AO73" t="inlineStr">
         <is>
           <t>經紀手續費63.81%、證券出售損益20.84%、承銷業務6.69%、股務代理5.60%、利息收入5.31%、股利收入1.92%、其他營業收入1.62%、衍生工具淨損益-櫃檯0.40%、借貸手續費0.03% (2024年)</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>宏遠證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>金融業平</t>
         </is>
       </c>
-      <c r="AP73" t="n">
+      <c r="AR73" t="n">
         <v>13.13</v>
       </c>
-      <c r="AQ73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AU73" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -13847,79 +14289,83 @@
       <c r="AB74" t="n">
         <v>0</v>
       </c>
-      <c r="AC74" t="inlineStr">
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AF74" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE74" t="inlineStr">
+      <c r="AG74" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF74" t="inlineStr">
+      <c r="AH74" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG74" t="n">
+      <c r="AI74" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH74" t="n">
+      <c r="AJ74" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI74" t="inlineStr">
+      <c r="AK74" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ74" t="inlineStr">
+      <c r="AL74" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK74" t="n">
+      <c r="AM74" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AN74" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AO74" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP74" t="n">
+      <c r="AR74" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS74" t="inlineStr">
+      <c r="AU74" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14028,79 +14474,83 @@
       <c r="AB75" t="n">
         <v>0</v>
       </c>
-      <c r="AC75" t="inlineStr">
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AF75" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE75" t="inlineStr">
+      <c r="AG75" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF75" t="inlineStr">
+      <c r="AH75" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG75" t="n">
+      <c r="AI75" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH75" t="n">
+      <c r="AJ75" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI75" t="inlineStr">
+      <c r="AK75" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ75" t="inlineStr">
+      <c r="AL75" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK75" t="n">
+      <c r="AM75" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AN75" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AO75" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP75" t="n">
+      <c r="AR75" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS75" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14209,79 +14659,83 @@
       <c r="AB76" t="n">
         <v>0</v>
       </c>
-      <c r="AC76" t="inlineStr">
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AF76" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE76" t="inlineStr">
+      <c r="AG76" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF76" t="inlineStr">
+      <c r="AH76" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG76" t="n">
+      <c r="AI76" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AJ76" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI76" t="inlineStr">
+      <c r="AK76" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ76" t="inlineStr">
+      <c r="AL76" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK76" t="n">
+      <c r="AM76" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AN76" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AO76" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP76" t="n">
+      <c r="AR76" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS76" t="inlineStr">
+      <c r="AU76" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14390,79 +14844,83 @@
       <c r="AB77" t="n">
         <v>0</v>
       </c>
-      <c r="AC77" t="inlineStr">
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AF77" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE77" t="inlineStr">
+      <c r="AG77" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF77" t="inlineStr">
+      <c r="AH77" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG77" t="n">
+      <c r="AI77" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH77" t="n">
+      <c r="AJ77" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AK77" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ77" t="inlineStr">
+      <c r="AL77" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK77" t="n">
+      <c r="AM77" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AN77" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AO77" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP77" t="n">
+      <c r="AR77" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS77" t="inlineStr">
+      <c r="AU77" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14571,79 +15029,83 @@
       <c r="AB78" t="n">
         <v>0</v>
       </c>
-      <c r="AC78" t="inlineStr">
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AF78" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE78" t="inlineStr">
+      <c r="AG78" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF78" t="inlineStr">
+      <c r="AH78" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG78" t="n">
+      <c r="AI78" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH78" t="n">
+      <c r="AJ78" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI78" t="inlineStr">
+      <c r="AK78" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ78" t="inlineStr">
+      <c r="AL78" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK78" t="n">
+      <c r="AM78" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AN78" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AO78" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP78" t="n">
+      <c r="AR78" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS78" t="inlineStr">
+      <c r="AU78" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14748,79 +15210,83 @@
       <c r="AB79" t="n">
         <v>0</v>
       </c>
-      <c r="AC79" t="inlineStr">
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AF79" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE79" t="inlineStr">
+      <c r="AG79" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF79" t="inlineStr">
+      <c r="AH79" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG79" t="n">
+      <c r="AI79" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH79" t="n">
+      <c r="AJ79" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI79" t="inlineStr">
+      <c r="AK79" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ79" t="inlineStr">
+      <c r="AL79" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK79" t="n">
+      <c r="AM79" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AN79" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AO79" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP79" t="n">
+      <c r="AR79" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS79" t="inlineStr">
+      <c r="AU79" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -14929,79 +15395,83 @@
       <c r="AB80" t="n">
         <v>0</v>
       </c>
-      <c r="AC80" t="inlineStr">
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AF80" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
+      <c r="AG80" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF80" t="inlineStr">
+      <c r="AH80" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG80" t="n">
+      <c r="AI80" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH80" t="n">
+      <c r="AJ80" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AK80" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ80" t="inlineStr">
+      <c r="AL80" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK80" t="n">
+      <c r="AM80" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AN80" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AO80" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP80" t="n">
+      <c r="AR80" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS80" t="inlineStr">
+      <c r="AU80" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -15110,79 +15580,83 @@
       <c r="AB81" t="n">
         <v>0</v>
       </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AF81" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
+      <c r="AG81" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF81" t="inlineStr">
+      <c r="AH81" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG81" t="n">
+      <c r="AI81" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AJ81" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI81" t="inlineStr">
+      <c r="AK81" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ81" t="inlineStr">
+      <c r="AL81" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK81" t="n">
+      <c r="AM81" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AN81" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AO81" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP81" t="n">
+      <c r="AR81" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS81" t="inlineStr">
+      <c r="AU81" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -15291,79 +15765,83 @@
       <c r="AB82" t="n">
         <v>0</v>
       </c>
-      <c r="AC82" t="inlineStr">
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AF82" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE82" t="inlineStr">
+      <c r="AG82" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF82" t="inlineStr">
+      <c r="AH82" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG82" t="n">
+      <c r="AI82" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH82" t="n">
+      <c r="AJ82" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AK82" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ82" t="inlineStr">
+      <c r="AL82" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK82" t="n">
+      <c r="AM82" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL82" t="inlineStr">
+      <c r="AN82" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM82" t="inlineStr">
+      <c r="AO82" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN82" t="inlineStr">
+      <c r="AP82" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO82" t="inlineStr">
+      <c r="AQ82" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP82" t="n">
+      <c r="AR82" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ82" t="inlineStr">
+      <c r="AS82" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS82" t="inlineStr">
+      <c r="AU82" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -15472,79 +15950,83 @@
       <c r="AB83" t="n">
         <v>0</v>
       </c>
-      <c r="AC83" t="inlineStr">
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD83" t="inlineStr">
+      <c r="AF83" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE83" t="inlineStr">
+      <c r="AG83" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF83" t="inlineStr">
+      <c r="AH83" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG83" t="n">
+      <c r="AI83" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH83" t="n">
+      <c r="AJ83" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI83" t="inlineStr">
+      <c r="AK83" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ83" t="inlineStr">
+      <c r="AL83" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK83" t="n">
+      <c r="AM83" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL83" t="inlineStr">
+      <c r="AN83" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AO83" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AQ83" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP83" t="n">
+      <c r="AR83" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS83" t="inlineStr">
+      <c r="AU83" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -15649,79 +16131,83 @@
       <c r="AB84" t="n">
         <v>0</v>
       </c>
-      <c r="AC84" t="inlineStr">
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD84" t="inlineStr">
+      <c r="AF84" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE84" t="inlineStr">
+      <c r="AG84" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF84" t="inlineStr">
+      <c r="AH84" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG84" t="n">
+      <c r="AI84" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH84" t="n">
+      <c r="AJ84" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI84" t="inlineStr">
+      <c r="AK84" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ84" t="inlineStr">
+      <c r="AL84" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK84" t="n">
+      <c r="AM84" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL84" t="inlineStr">
+      <c r="AN84" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM84" t="inlineStr">
+      <c r="AO84" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN84" t="inlineStr">
+      <c r="AP84" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO84" t="inlineStr">
+      <c r="AQ84" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP84" t="n">
+      <c r="AR84" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ84" t="inlineStr">
+      <c r="AS84" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS84" t="inlineStr">
+      <c r="AU84" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -15826,79 +16312,85 @@
       <c r="AB85" t="n">
         <v>-31.87475490101846</v>
       </c>
-      <c r="AC85" t="inlineStr">
+      <c r="AC85" t="n">
+        <v>-68.89847603539573</v>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="inlineStr">
         <is>
           <t>台名</t>
         </is>
       </c>
-      <c r="AD85" t="inlineStr">
+      <c r="AF85" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE85" t="inlineStr">
+      <c r="AG85" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF85" t="inlineStr">
+      <c r="AH85" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="AG85" t="n">
+      <c r="AI85" t="n">
         <v>8.779999999999999</v>
       </c>
-      <c r="AH85" t="n">
+      <c r="AJ85" t="n">
         <v>18.2</v>
       </c>
-      <c r="AI85" t="inlineStr">
+      <c r="AK85" t="inlineStr">
         <is>
           <t>15.44%</t>
         </is>
       </c>
-      <c r="AJ85" t="inlineStr">
+      <c r="AL85" t="inlineStr">
         <is>
           <t>4.00%</t>
         </is>
       </c>
-      <c r="AK85" t="n">
+      <c r="AM85" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL85" t="inlineStr">
+      <c r="AN85" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="AM85" t="inlineStr">
+      <c r="AO85" t="inlineStr">
         <is>
           <t>佣金100.00% (2024年)</t>
         </is>
       </c>
-      <c r="AN85" t="inlineStr">
+      <c r="AP85" t="inlineStr">
         <is>
           <t>台名-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO85" t="inlineStr">
+      <c r="AQ85" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP85" t="n">
+      <c r="AR85" t="n">
         <v>19.75</v>
       </c>
-      <c r="AQ85" t="inlineStr">
+      <c r="AS85" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS85" t="inlineStr">
+      <c r="AU85" t="inlineStr">
         <is>
           <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
@@ -16015,69 +16507,75 @@
       <c r="AB86" t="n">
         <v>143.1258187749506</v>
       </c>
-      <c r="AC86" t="inlineStr">
+      <c r="AC86" t="n">
+        <v>142.0352069030774</v>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD86" t="inlineStr">
+      <c r="AF86" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE86" t="inlineStr">
+      <c r="AG86" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF86" t="inlineStr">
+      <c r="AH86" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG86" t="n">
+      <c r="AI86" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH86" t="inlineStr"/>
-      <c r="AI86" t="inlineStr"/>
       <c r="AJ86" t="inlineStr"/>
-      <c r="AK86" t="n">
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL86" t="inlineStr">
+      <c r="AN86" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM86" t="inlineStr">
+      <c r="AO86" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN86" t="inlineStr">
+      <c r="AP86" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO86" t="inlineStr">
+      <c r="AQ86" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP86" t="n">
+      <c r="AR86" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS86" t="inlineStr">
+      <c r="AU86" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -16194,69 +16692,75 @@
       <c r="AB87" t="n">
         <v>157.0764145249057</v>
       </c>
-      <c r="AC87" t="inlineStr">
+      <c r="AC87" t="n">
+        <v>154.1006164815703</v>
+      </c>
+      <c r="AD87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE87" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD87" t="inlineStr">
+      <c r="AF87" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE87" t="inlineStr">
+      <c r="AG87" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF87" t="inlineStr">
+      <c r="AH87" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG87" t="n">
+      <c r="AI87" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH87" t="inlineStr"/>
-      <c r="AI87" t="inlineStr"/>
       <c r="AJ87" t="inlineStr"/>
-      <c r="AK87" t="n">
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL87" t="inlineStr">
+      <c r="AN87" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM87" t="inlineStr">
+      <c r="AO87" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN87" t="inlineStr">
+      <c r="AP87" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO87" t="inlineStr">
+      <c r="AQ87" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP87" t="n">
+      <c r="AR87" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ87" t="inlineStr">
+      <c r="AS87" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS87" t="inlineStr">
+      <c r="AU87" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -16373,69 +16877,75 @@
       <c r="AB88" t="n">
         <v>153.1176018620981</v>
       </c>
-      <c r="AC88" t="inlineStr">
+      <c r="AC88" t="n">
+        <v>174.619586530263</v>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD88" t="inlineStr">
+      <c r="AF88" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE88" t="inlineStr">
+      <c r="AG88" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF88" t="inlineStr">
+      <c r="AH88" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG88" t="n">
+      <c r="AI88" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH88" t="inlineStr"/>
-      <c r="AI88" t="inlineStr"/>
       <c r="AJ88" t="inlineStr"/>
-      <c r="AK88" t="n">
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL88" t="inlineStr">
+      <c r="AN88" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM88" t="inlineStr">
+      <c r="AO88" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN88" t="inlineStr">
+      <c r="AP88" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO88" t="inlineStr">
+      <c r="AQ88" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP88" t="n">
+      <c r="AR88" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS88" t="inlineStr">
+      <c r="AU88" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -16552,69 +17062,75 @@
       <c r="AB89" t="n">
         <v>137.2625221974301</v>
       </c>
-      <c r="AC89" t="inlineStr">
+      <c r="AC89" t="n">
+        <v>103.1552228440228</v>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD89" t="inlineStr">
+      <c r="AF89" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE89" t="inlineStr">
+      <c r="AG89" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF89" t="inlineStr">
+      <c r="AH89" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG89" t="n">
+      <c r="AI89" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH89" t="inlineStr"/>
-      <c r="AI89" t="inlineStr"/>
       <c r="AJ89" t="inlineStr"/>
-      <c r="AK89" t="n">
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL89" t="inlineStr">
+      <c r="AN89" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM89" t="inlineStr">
+      <c r="AO89" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN89" t="inlineStr">
+      <c r="AP89" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO89" t="inlineStr">
+      <c r="AQ89" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP89" t="n">
+      <c r="AR89" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS89" t="inlineStr">
+      <c r="AU89" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -16731,69 +17247,75 @@
       <c r="AB90" t="n">
         <v>92.34717104492157</v>
       </c>
-      <c r="AC90" t="inlineStr">
+      <c r="AC90" t="n">
+        <v>157.3149706798434</v>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD90" t="inlineStr">
+      <c r="AF90" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE90" t="inlineStr">
+      <c r="AG90" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF90" t="inlineStr">
+      <c r="AH90" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG90" t="n">
+      <c r="AI90" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH90" t="inlineStr"/>
-      <c r="AI90" t="inlineStr"/>
       <c r="AJ90" t="inlineStr"/>
-      <c r="AK90" t="n">
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL90" t="inlineStr">
+      <c r="AN90" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM90" t="inlineStr">
+      <c r="AO90" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN90" t="inlineStr">
+      <c r="AP90" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO90" t="inlineStr">
+      <c r="AQ90" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP90" t="n">
+      <c r="AR90" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS90" t="inlineStr">
+      <c r="AU90" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -16910,69 +17432,75 @@
       <c r="AB91" t="n">
         <v>128.9457250163804</v>
       </c>
-      <c r="AC91" t="inlineStr">
+      <c r="AC91" t="n">
+        <v>21.16601048851673</v>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD91" t="inlineStr">
+      <c r="AF91" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE91" t="inlineStr">
+      <c r="AG91" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF91" t="inlineStr">
+      <c r="AH91" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG91" t="n">
+      <c r="AI91" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
       <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="n">
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL91" t="inlineStr">
+      <c r="AN91" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM91" t="inlineStr">
+      <c r="AO91" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN91" t="inlineStr">
+      <c r="AP91" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO91" t="inlineStr">
+      <c r="AQ91" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP91" t="n">
+      <c r="AR91" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS91" t="inlineStr">
+      <c r="AU91" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17089,69 +17617,75 @@
       <c r="AB92" t="n">
         <v>80.34301463101818</v>
       </c>
-      <c r="AC92" t="inlineStr">
+      <c r="AC92" t="n">
+        <v>-252.1388506359145</v>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD92" t="inlineStr">
+      <c r="AF92" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE92" t="inlineStr">
+      <c r="AG92" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF92" t="inlineStr">
+      <c r="AH92" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG92" t="n">
+      <c r="AI92" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH92" t="inlineStr"/>
-      <c r="AI92" t="inlineStr"/>
       <c r="AJ92" t="inlineStr"/>
-      <c r="AK92" t="n">
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL92" t="inlineStr">
+      <c r="AN92" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM92" t="inlineStr">
+      <c r="AO92" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN92" t="inlineStr">
+      <c r="AP92" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO92" t="inlineStr">
+      <c r="AQ92" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP92" t="n">
+      <c r="AR92" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS92" t="inlineStr">
+      <c r="AU92" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17268,69 +17802,75 @@
       <c r="AB93" t="n">
         <v>101.4396372233261</v>
       </c>
-      <c r="AC93" t="inlineStr">
+      <c r="AC93" t="n">
+        <v>-245.3120461779242</v>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD93" t="inlineStr">
+      <c r="AF93" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE93" t="inlineStr">
+      <c r="AG93" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF93" t="inlineStr">
+      <c r="AH93" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG93" t="n">
+      <c r="AI93" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH93" t="inlineStr"/>
-      <c r="AI93" t="inlineStr"/>
       <c r="AJ93" t="inlineStr"/>
-      <c r="AK93" t="n">
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL93" t="inlineStr">
+      <c r="AN93" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM93" t="inlineStr">
+      <c r="AO93" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN93" t="inlineStr">
+      <c r="AP93" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO93" t="inlineStr">
+      <c r="AQ93" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP93" t="n">
+      <c r="AR93" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS93" t="inlineStr">
+      <c r="AU93" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17447,69 +17987,75 @@
       <c r="AB94" t="n">
         <v>98.40731680114035</v>
       </c>
-      <c r="AC94" t="inlineStr">
+      <c r="AC94" t="n">
+        <v>-268.691272653207</v>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD94" t="inlineStr">
+      <c r="AF94" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE94" t="inlineStr">
+      <c r="AG94" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF94" t="inlineStr">
+      <c r="AH94" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG94" t="n">
+      <c r="AI94" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH94" t="inlineStr"/>
-      <c r="AI94" t="inlineStr"/>
       <c r="AJ94" t="inlineStr"/>
-      <c r="AK94" t="n">
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL94" t="inlineStr">
+      <c r="AN94" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM94" t="inlineStr">
+      <c r="AO94" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN94" t="inlineStr">
+      <c r="AP94" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO94" t="inlineStr">
+      <c r="AQ94" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP94" t="n">
+      <c r="AR94" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ94" t="inlineStr">
+      <c r="AS94" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR94" t="inlineStr">
+      <c r="AT94" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS94" t="inlineStr">
+      <c r="AU94" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17626,69 +18172,75 @@
       <c r="AB95" t="n">
         <v>95.36246641105711</v>
       </c>
-      <c r="AC95" t="inlineStr">
+      <c r="AC95" t="n">
+        <v>-244.8509750848463</v>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD95" t="inlineStr">
+      <c r="AF95" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE95" t="inlineStr">
+      <c r="AG95" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF95" t="inlineStr">
+      <c r="AH95" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG95" t="n">
+      <c r="AI95" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH95" t="inlineStr"/>
-      <c r="AI95" t="inlineStr"/>
       <c r="AJ95" t="inlineStr"/>
-      <c r="AK95" t="n">
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL95" t="inlineStr">
+      <c r="AN95" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM95" t="inlineStr">
+      <c r="AO95" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN95" t="inlineStr">
+      <c r="AP95" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO95" t="inlineStr">
+      <c r="AQ95" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP95" t="n">
+      <c r="AR95" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ95" t="inlineStr">
+      <c r="AS95" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR95" t="inlineStr">
+      <c r="AT95" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS95" t="inlineStr">
+      <c r="AU95" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17797,69 +18349,75 @@
       <c r="AB96" t="n">
         <v>-17.6351920885484</v>
       </c>
-      <c r="AC96" t="inlineStr">
+      <c r="AC96" t="n">
+        <v>-300.2032644725903</v>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD96" t="inlineStr">
+      <c r="AF96" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE96" t="inlineStr">
+      <c r="AG96" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF96" t="inlineStr">
+      <c r="AH96" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG96" t="n">
+      <c r="AI96" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH96" t="inlineStr"/>
-      <c r="AI96" t="inlineStr"/>
       <c r="AJ96" t="inlineStr"/>
-      <c r="AK96" t="n">
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL96" t="inlineStr">
+      <c r="AN96" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM96" t="inlineStr">
+      <c r="AO96" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN96" t="inlineStr">
+      <c r="AP96" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO96" t="inlineStr">
+      <c r="AQ96" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP96" t="n">
+      <c r="AR96" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ96" t="inlineStr">
+      <c r="AS96" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS96" t="inlineStr">
+      <c r="AU96" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>
@@ -17968,69 +18526,75 @@
       <c r="AB97" t="n">
         <v>-30.43024810940588</v>
       </c>
-      <c r="AC97" t="inlineStr">
+      <c r="AC97" t="n">
+        <v>-338.921819893615</v>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="inlineStr">
         <is>
           <t>致和證</t>
         </is>
       </c>
-      <c r="AD97" t="inlineStr">
+      <c r="AF97" t="inlineStr">
         <is>
           <t>金融業</t>
         </is>
       </c>
-      <c r="AE97" t="inlineStr">
+      <c r="AG97" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF97" t="inlineStr">
+      <c r="AH97" t="inlineStr">
         <is>
           <t>9.16</t>
         </is>
       </c>
-      <c r="AG97" t="n">
+      <c r="AI97" t="n">
         <v>-1.01</v>
       </c>
-      <c r="AH97" t="inlineStr"/>
-      <c r="AI97" t="inlineStr"/>
       <c r="AJ97" t="inlineStr"/>
-      <c r="AK97" t="n">
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AL97" t="inlineStr">
+      <c r="AN97" t="inlineStr">
         <is>
           <t>5492</t>
         </is>
       </c>
-      <c r="AM97" t="inlineStr">
+      <c r="AO97" t="inlineStr">
         <is>
           <t>營業證券透過損益按公允價值27.87%、經紀手續費27.71%、證券出售損益24.42%、股利收入11.89%、利息收入7.69%、承銷業務0.21%、期貨佣金0.21% (2024年)</t>
         </is>
       </c>
-      <c r="AN97" t="inlineStr">
+      <c r="AP97" t="inlineStr">
         <is>
           <t>致和證-金融業-上櫃</t>
         </is>
       </c>
-      <c r="AO97" t="inlineStr">
+      <c r="AQ97" t="inlineStr">
         <is>
           <t>金融業右下</t>
         </is>
       </c>
-      <c r="AP97" t="n">
+      <c r="AR97" t="n">
         <v>16.02</v>
       </c>
-      <c r="AQ97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="AS97" t="inlineStr">
+      <c r="AU97" t="inlineStr">
         <is>
           <t>** 金融 - 證券業</t>
         </is>

--- a/Result/checksun/金融業.xlsx
+++ b/Result/checksun/金融業.xlsx
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>-1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1379,16 +1379,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1817,16 +1817,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2036,20 +2036,20 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>-5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2255,16 +2255,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3130,17 +3130,17 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -4006,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4222,16 +4222,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -4441,20 +4441,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B19" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4660,16 +4660,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5532,13 +5532,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -6162,13 +6162,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6371,13 +6371,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6580,13 +6580,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6789,17 +6789,17 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -6998,13 +6998,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7207,13 +7207,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8280,13 +8280,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8499,13 +8499,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9132,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -9551,13 +9551,13 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -10180,20 +10180,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -10406,13 +10406,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -10625,13 +10625,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -10841,13 +10841,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11279,20 +11279,20 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -11498,20 +11498,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11720,17 +11720,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -11936,20 +11936,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12600,13 +12600,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -12819,13 +12819,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -13038,13 +13038,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C59" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -13254,16 +13254,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -13473,20 +13473,20 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -13692,16 +13692,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -13914,17 +13914,17 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -14133,10 +14133,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -14349,20 +14349,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -15005,13 +15005,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -15222,17 +15222,17 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -15437,17 +15437,17 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -15652,17 +15652,17 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -16723,13 +16723,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -17370,13 +17370,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -17576,20 +17576,20 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C80" t="n">
         <v>-1</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -17785,13 +17785,13 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -17994,13 +17994,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
@@ -18203,16 +18203,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -18412,16 +18412,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -18621,20 +18621,20 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -18833,10 +18833,10 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -19039,20 +19039,20 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
